--- a/INVENTARIO.xlsx
+++ b/INVENTARIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STIPRO\stipro\corpmym\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1327211-BC9E-4B4D-8FF8-809BF9E9834F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4548CB-62B5-4033-8C86-E32B9D511BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{07441D26-F493-4C2B-96D3-271EE3D77284}"/>
+    <workbookView xWindow="0" yWindow="810" windowWidth="21600" windowHeight="11880" activeTab="1" xr2:uid="{07441D26-F493-4C2B-96D3-271EE3D77284}"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCTO" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="KARDEX X PROVEEDOR" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'KARDEX GENERAL'!$A$1:$O$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'KARDEX GENERAL'!$A$2:$P$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="165">
   <si>
     <t>ENTRADA</t>
   </si>
@@ -524,6 +524,15 @@
   </si>
   <si>
     <t>Cantidad</t>
+  </si>
+  <si>
+    <t>UNIDAD 1</t>
+  </si>
+  <si>
+    <t>UNIDAD 2</t>
+  </si>
+  <si>
+    <t>LAP001</t>
   </si>
 </sst>
 </file>
@@ -531,9 +540,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d/mm/yyyy\ hh:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy\ hh:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,6 +568,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -580,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -627,19 +643,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -660,9 +686,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2083,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331E84AB-7739-4833-B64D-D3D3E871989E}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,104 +2136,80 @@
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="23" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="4" t="s">
+      <c r="L2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="7">
-        <v>44002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>7</v>
@@ -2206,21 +2217,20 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
-      <c r="L3" s="2">
-        <v>4</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="7">
-        <v>44003.375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="20"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="7">
+        <v>44002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2232,7 +2242,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -2246,62 +2256,55 @@
       <c r="K4" s="2">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
-        <v>8</v>
-      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="7">
-        <v>44003.475694444445</v>
-      </c>
-      <c r="P4" s="3">
-        <f ca="1">NOW()</f>
-        <v>44006.718774074077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="20"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="7">
+        <v>44003.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="L5" s="2">
-        <f>IF(J5&lt;=0,K5,J5)</f>
-        <v>2</v>
-      </c>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="7">
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="20"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="7">
+        <v>44003.475694444445</v>
+      </c>
+      <c r="Q5" s="3">
+        <f ca="1">NOW()</f>
+        <v>44007.411242592592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2328,25 +2331,26 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
       <c r="L6" s="2">
-        <f>L5+J6-K6</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="2" t="str">
-        <f>IF(L5&lt;0,"SOLO QUEDA UNIDADES","CAJAS")</f>
-        <v>CAJAS</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="7">
-        <v>44006.541666666664</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P6" s="7">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2373,27 +2377,29 @@
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <f>L6+J7-K7</f>
-        <v>2</v>
-      </c>
-      <c r="M7" s="2" t="str">
-        <f t="shared" ref="M7:M9" si="0">IF(L6&lt;0,"SOLO QUEDA UNIDADES","CAJAS")</f>
-        <v>CAJAS</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="7">
-        <v>44006.625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <f>IF(EXACT(H7,"CJ"),L6+J7-K7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" s="7">
+        <v>44006.541666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -2421,22 +2427,24 @@
         <v>2</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <f>L7+J8-K8</f>
-        <v>4</v>
-      </c>
-      <c r="M8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CAJAS</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="7">
-        <v>44006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <f>IF(EXACT(H8,"CJ"),L7+J8-K8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P8" s="7">
+        <v>44006.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2463,32 +2471,46 @@
         <v>1</v>
       </c>
       <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
       <c r="L9" s="2">
-        <f>L8+J9-K9</f>
-        <v>3</v>
-      </c>
-      <c r="M9" s="2" t="str">
-        <f>IF(EXACT(H9,"CJ"),"CAJAS",IF(EXACT(H9,"PQ"),"PAQUETES","NOSE RECONOCE UNIDAD"))</f>
-        <v>CAJAS</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="7">
-        <v>44006.541666666664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <f>IF(EXACT(H9,"CJ"),L8+J9-K9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="7">
+        <v>44006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2499,91 +2521,151 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <f>L9+J10-K10</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <f>IF(EXACT(H10,"CJ"),L9+J10-K10,0)</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="7">
+        <v>44006.541666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2">
-        <v>5</v>
-      </c>
-      <c r="J11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2">
+        <f>IF(EXACT(H11,"CJ"),L10+J11-K11,0)</f>
         <v>1</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
-        <f>(L10*5)/K11</f>
-        <v>5</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5</v>
+      </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <f>IF(EXACT(H12,"CJ"),L11+J12-K12,IF(EXACT(H12,"PQ"),L11-1,"NOSE RECONOCE UNIDAD"))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="21">
+        <v>4</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
+      </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <f>IF(EXACT(H13,"CJ"),L12+J13-K13,IF(EXACT(H13,"PQ"),IF(L12=0,0,L12-1),"NOSE RECONOCE UNIDAD"))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" s="21">
+        <v>3</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2591,148 +2673,219 @@
         <v>23</v>
       </c>
       <c r="I14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
+        <f>IF(EXACT(H14,"CJ"),L13+J14-K14,IF(EXACT(H14,"PQ"),IF(L13=0,0,L13-1),"NOSE RECONOCE UNIDAD"))</f>
         <v>0</v>
       </c>
-      <c r="L14" s="2">
-        <f>L10+J14-K14</f>
-        <v>4</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="7">
-        <v>44007.333333333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="M14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N14" s="21">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>7</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <f>L14+J15-K15</f>
-        <v>11</v>
-      </c>
-      <c r="M15" s="2" t="str">
-        <f>IF(L14+J15-K15&gt;=5,CONCATENATE((L14+J15-K15)/5," CAJAS"),"AUN NO SUPERA")</f>
-        <v>2.2 CAJAS</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="7">
-        <v>44008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
         <v>3</v>
       </c>
-      <c r="L16" s="2">
-        <f t="shared" ref="L16:L17" si="1">L15+J16-K16</f>
-        <v>8</v>
-      </c>
-      <c r="M16" s="2" t="str">
-        <f>IF(L15+J16-K16&gt;=5,CONCATENATE((L15+J16-K16)/5," CAJAS"),"AUN NO SUPERA")</f>
-        <v>1.6 CAJAS</v>
-      </c>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="7">
+        <v>44007.333333333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>7</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="e">
+        <f>IF(#REF!+J18-K18&gt;=5,CONCATENATE((#REF!+J18-K18)/5," CAJAS"),"AUN NO SUPERA")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="7">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <v>3</v>
+      </c>
+      <c r="L19" s="2" t="e">
+        <f>IF(#REF!+J19-K19&gt;=5,CONCATENATE((#REF!+J19-K19)/5," CAJAS"),"AUN NO SUPERA")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
         <v>2</v>
       </c>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M17" s="2" t="str">
-        <f>IF(L16+J17-K17&gt;=5,CONCATENATE((L16+J17-K17)/5," CAJAS"),"AUN NO SUPERA")</f>
-        <v>1.2 CAJAS</v>
-      </c>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="K18" s="6">
+      <c r="L20" s="2" t="e">
+        <f>IF(#REF!+J20-K20&gt;=5,CONCATENATE((#REF!+J20-K20)/5," CAJAS"),"AUN NO SUPERA")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K21" s="6">
         <v>3</v>
       </c>
-      <c r="L18" s="2">
-        <f t="shared" ref="L18" si="2">L17+J18-K18</f>
-        <v>3</v>
-      </c>
-      <c r="M18" s="2" t="str">
-        <f>IF(L17+J18-K18&gt;=5,CONCATENATE((L17+J18-K18)/5," CAJAS"),"PAQUETES")</f>
-        <v>PAQUETES</v>
-      </c>
-    </row>
-    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P19" t="s">
+      <c r="L21" s="2" t="e">
+        <f>IF(#REF!+J21-K21&gt;=5,CONCATENATE((#REF!+J21-K21)/5," CAJAS"),"PAQUETES")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="P20" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
         <v>26</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G23" s="6" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G24" s="6" t="s">
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="17"/>
+      <c r="I27" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O15" xr:uid="{E05C593C-D3C9-442B-9F16-015AD841D075}"/>
+  <autoFilter ref="A2:P18" xr:uid="{E05C593C-D3C9-442B-9F16-015AD841D075}"/>
+  <mergeCells count="1">
+    <mergeCell ref="L1:O1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
